--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19440" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -267,8 +267,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,12 +278,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,7 +292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,19 +343,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -358,14 +357,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,16 +373,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,7 +451,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -491,7 +485,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,47 +660,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -717,11 +710,11 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -734,27 +727,28 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
@@ -768,49 +762,49 @@
     <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -844,11 +838,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -882,11 +876,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -920,11 +914,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -958,11 +952,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -996,11 +990,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1034,11 +1028,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1072,11 +1066,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1110,11 +1104,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1149,26 +1143,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
@@ -1179,7 +1174,7 @@
     <col min="13" max="13" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,45 +1184,45 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1261,14 +1256,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1302,14 +1297,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1343,14 +1338,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1384,14 +1379,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1425,14 +1420,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1466,14 +1461,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1507,14 +1502,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1548,14 +1543,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1590,6 +1585,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="83">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -262,13 +262,16 @@
   </si>
   <si>
     <t>Depsa</t>
+  </si>
+  <si>
+    <t>V9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,11 +376,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,6 +459,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -485,6 +494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,21 +670,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +698,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -700,7 +710,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -714,7 +724,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -741,14 +751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
@@ -762,7 +772,7 @@
     <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -838,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -876,7 +886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -914,7 +924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -952,7 +962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1104,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1150,14 +1160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1174,7 +1184,7 @@
     <col min="13" max="13" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1502,9 +1512,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1543,9 +1553,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
@@ -382,6 +382,731 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>397597</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="14 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3618779" y="1402775"/>
+          <a:ext cx="18039" cy="2013675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>953220</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>306772</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="18 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3057379" y="1855932"/>
+          <a:ext cx="470575" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1307521</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="20 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1307521" y="2034885"/>
+          <a:ext cx="1421937" cy="236105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>365703</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="21 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3247159" y="2485159"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31172</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370898</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="22 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3252354" y="1607127"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>467590</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10230</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="23 Flecha curvada hacia la izquierda"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3688772" y="1853045"/>
+          <a:ext cx="477822" cy="874569"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446808</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>786534</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="24 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667990" y="2854036"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>443345</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>783071</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="25 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664527" y="1620982"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225135</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60926</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="26 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381499" y="2034886"/>
+          <a:ext cx="1532972" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>883228</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>164522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="30 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987387" y="987136"/>
+          <a:ext cx="1290204" cy="320386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Inicio Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>796637</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233795</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="31 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2900796" y="3524252"/>
+          <a:ext cx="1489363" cy="251114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Fin Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>658089</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4814453" y="1212273"/>
+          <a:ext cx="1835729" cy="268432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SI_CUS012_CREAR_ACTIVO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +1472,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS012_G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>V2</t>
   </si>
   <si>
-    <t>TC1</t>
-  </si>
-  <si>
     <t>Mensaje de confirmación</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>V9</t>
+  </si>
+  <si>
+    <t>TC1_SI_CUS012</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1480,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,31 +1506,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1609,15 +1609,15 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1647,15 +1647,15 @@
         <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -1685,15 +1685,15 @@
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1723,15 +1723,15 @@
         <v>4</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1904,7 @@
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="45" bestFit="1" customWidth="1"/>
@@ -1921,31 +1921,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -1956,34 +1956,34 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="J2" s="2">
         <v>1500</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -1997,198 +1997,198 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2">
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="J4" s="2">
         <v>1200</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2">
         <v>70000</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2">
         <v>250000</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2">
         <v>3500</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>13</v>
@@ -2199,28 +2199,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>5</v>
@@ -2229,7 +2229,7 @@
         <v>3500</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>13</v>
@@ -2240,37 +2240,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>13</v>
@@ -2281,31 +2281,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2">
         <v>25000</v>
